--- a/data/trans_camb/P14_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P14_2-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,09</t>
+          <t>8,0</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 12,3</t>
+          <t>6,01; 12,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 9,78</t>
+          <t>4,44; 10,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 10,29</t>
+          <t>5,95; 10,25</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>208,32%</t>
+          <t>197,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>126,63%</t>
+          <t>124,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>159,88%</t>
+          <t>154,78%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>104,39; 377,64</t>
+          <t>99,58; 357,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,1; 212,95</t>
+          <t>59,51; 215,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>102,19; 240,35</t>
+          <t>99,75; 239,94</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,47</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>8,95</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 13,04</t>
+          <t>5,98; 13,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 11,72</t>
+          <t>5,64; 11,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,49; 11,21</t>
+          <t>6,55; 11,3</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>222,93%</t>
+          <t>230,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>248,48%</t>
+          <t>252,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>234,72%</t>
+          <t>240,73%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>86,29; 429,92</t>
+          <t>113,43; 497,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>111,48; 474,09</t>
+          <t>114,54; 477,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>139,34; 391,12</t>
+          <t>145,12; 385,53</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,51</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>6,1</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 10,18</t>
+          <t>-1,23; 8,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 13,85</t>
+          <t>3,8; 14,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 10,0</t>
+          <t>2,79; 9,93</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>137,69%</t>
+          <t>126,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>395,41%</t>
+          <t>350,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>241,55%</t>
+          <t>224,51%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,3; 914,49</t>
+          <t>-35,21; 924,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>67,18; 1793,56</t>
+          <t>56,82; 1759,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,07; 623,48</t>
+          <t>56,12; 748,11</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,19</t>
+          <t>8,15</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,71</t>
+          <t>6,29; 10,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 9,74</t>
+          <t>5,94; 9,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,83; 9,64</t>
+          <t>6,7; 9,5</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>207,71%</t>
+          <t>203,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>177,73%</t>
+          <t>176,14%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>191,79%</t>
+          <t>189,05%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>120,14; 316,38</t>
+          <t>120,33; 310,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>114,81; 259,95</t>
+          <t>109,53; 270,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>142,83; 261,96</t>
+          <t>138,21; 252,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P14_2-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,84</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,23</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,0</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>8.670784944446574</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.201716401382793</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.902574694314131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>6,01; 12,17</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,44; 10,2</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,95; 10,25</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>5.898863367935379</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>4.265991961631398</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5.833903254938292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>197,21%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>124,83%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>154,78%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>12.06285720920005</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.08606866720551</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.19110254433971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>99,58; 357,43</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>59,51; 215,71</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>99,75; 239,94</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>1.935087864357143</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1.247500948821851</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.532663073041238</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>9,27</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,62</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,95</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>0.9814024586924502</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>0.6104382848226034</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.9748983154613495</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>5,98; 13,35</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5,64; 11,68</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>6,55; 11,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>3.600362678589041</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>2.15316090986862</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>2.378414548473181</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>230,23%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>252,63%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>240,73%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>8.903719456979831</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.602752188522285</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.757210498589696</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>113,43; 497,79</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>114,54; 477,1</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>145,12; 385,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>5.736922542733451</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>5.672644859637807</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>6.337027496388675</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,81</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8,46</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,1</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.17041159666805</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.70771719198961</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.08083924161391</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 8,85</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 14,47</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 9,93</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>2.156261809198354</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>2.561236657355388</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>2.340501978614806</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>126,54%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>350,11%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>224,51%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>1.065311296631878</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>1.118998258441486</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>1.420125226897578</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-35,21; 924,63</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>56,82; 1759,39</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>56,12; 748,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>4.703057348938833</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>4.873734652342429</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>3.773878998529133</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>8,4</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,91</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>8,15</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>3.864911427472022</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>8.642110142917188</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>6.220907969931471</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>6,29; 10,47</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 9,81</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>6,7; 9,5</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-1.370354485128542</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>4.058998574716778</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>2.855257495378132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>203,79%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>176,14%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>189,05%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>9.15531658434201</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>14.5237158326667</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>10.17182240743708</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>120,33; 310,81</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>109,53; 270,16</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>138,21; 252,79</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1.210578748558811</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>3.867012456728717</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>2.287110182239818</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.3841525583208966</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.7049280463480673</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.5929317144663547</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>8.572455095494487</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>19.48317522523825</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>7.989716530502323</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>8.176559681042178</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>7.910753754982047</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>8.040590917467078</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>6.109954486416313</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>5.979663166595431</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>6.573329048131965</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>10.27204840394767</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>9.854043983949698</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>9.373438445367519</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1.954800954957514</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.782014302391009</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>1.863846230504214</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>1.179245864998289</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>1.085036124770254</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>1.365955113717208</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>2.984170083793196</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>2.726662967831017</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>2.52043803255784</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
